--- a/JXGIS.JXTopsystem/Files/UploadFiles/农村门牌上传模板.xlsx
+++ b/JXGIS.JXTopsystem/Files/UploadFiles/农村门牌上传模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2018xm\XM\JXGIS.JXTopsystem\JXGIS.JXTopsystem\Files\UploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2018xm\XM\JXGIS.JXTopsystem\JXTopsys\JXTopsys\JXGIS.JXTopsystem\Files\UploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t>市辖区</t>
   </si>
@@ -72,34 +72,6 @@
     <t>原门牌号码</t>
   </si>
   <si>
-    <t>曹桥</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>百寿</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹桥</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹桥</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>百寿</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹桥</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>百寿</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>蒋家浜</t>
   </si>
   <si>
@@ -133,6 +105,20 @@
   <si>
     <t>沈海良</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政编码</t>
+  </si>
+  <si>
+    <t>建设街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南杨社区</t>
   </si>
 </sst>
 </file>
@@ -226,7 +212,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -250,39 +236,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color auto="1"/>
-      </right>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -294,7 +254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -316,41 +276,53 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,11 +599,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -650,7 +622,7 @@
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -660,25 +632,25 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="6" t="s">
@@ -687,216 +659,278 @@
       <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="14">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="16">
+        <v>38915</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="22">
+        <v>314033</v>
+      </c>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="14">
+        <v>2</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="16">
+        <v>38916</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="22">
+        <v>314033</v>
+      </c>
+      <c r="O3" s="18"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="14">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="16">
+        <v>38917</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="22">
+        <v>314033</v>
+      </c>
+      <c r="O4" s="18"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="14">
+        <v>4</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="16">
+        <v>38918</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="22">
+        <v>314033</v>
+      </c>
+      <c r="O5" s="18"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="14">
+        <v>5</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="16">
+        <v>38919</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="22">
+        <v>314033</v>
+      </c>
+      <c r="O6" s="18"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="14">
+        <v>6</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="16">
+        <v>38920</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="22">
+        <v>314033</v>
+      </c>
+      <c r="O7" s="18"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="14">
+        <v>7</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="11">
-        <v>38915</v>
-      </c>
-      <c r="J2" s="13" t="s">
+      <c r="I8" s="16">
+        <v>38921</v>
+      </c>
+      <c r="J8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="11">
-        <v>38916</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="11">
-        <v>38917</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="11">
-        <v>38918</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="11">
-        <v>38919</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3">
-        <v>6</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="11">
-        <v>38920</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="3">
-        <v>7</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="11">
-        <v>38921</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" t="s">
-        <v>13</v>
-      </c>
+      <c r="N8" s="22">
+        <v>314033</v>
+      </c>
+      <c r="O8" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/JXGIS.JXTopsystem/Files/UploadFiles/农村门牌上传模板.xlsx
+++ b/JXGIS.JXTopsystem/Files/UploadFiles/农村门牌上传模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>市辖区</t>
   </si>
@@ -53,22 +53,6 @@
     <t>编制日期</t>
   </si>
   <si>
-    <t>门牌规格（30*20CM；40*60CM；21*15MM；18*14MM；15*10MM）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30*20CM</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否制作门牌</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>原门牌号码</t>
   </si>
   <si>
@@ -119,6 +103,58 @@
   </si>
   <si>
     <t>南杨社区</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0CM</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>门牌规格</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -254,7 +290,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -288,9 +324,6 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -306,9 +339,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -323,6 +353,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,11 +632,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1:N1048576"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -616,13 +649,12 @@
     <col min="7" max="7" width="12.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.625" customWidth="1"/>
+    <col min="10" max="10" width="14.75" customWidth="1"/>
     <col min="11" max="11" width="11" style="2" customWidth="1"/>
     <col min="12" max="12" width="10" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -639,7 +671,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>3</v>
@@ -651,7 +683,7 @@
         <v>9</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>5</v>
@@ -659,274 +691,250 @@
       <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="4" t="s">
+      <c r="B2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="15">
+        <v>38915</v>
+      </c>
+      <c r="J2" s="21" t="s">
         <v>24</v>
       </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="20">
+        <v>314033</v>
+      </c>
+      <c r="N2" s="16"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="13">
+        <v>2</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="15">
+        <v>38916</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="20">
+        <v>314033</v>
+      </c>
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="13">
+        <v>3</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="15">
+        <v>38917</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="20">
+        <v>314033</v>
+      </c>
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="14">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="15" t="s">
+      <c r="I5" s="15">
+        <v>38918</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="20">
+        <v>314033</v>
+      </c>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="13">
+        <v>5</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="16">
-        <v>38915</v>
-      </c>
-      <c r="J2" s="17" t="s">
+      <c r="I6" s="15">
+        <v>38919</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="20">
+        <v>314033</v>
+      </c>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="22">
+      <c r="E7" s="13">
+        <v>6</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="15">
+        <v>38920</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="20">
         <v>314033</v>
       </c>
-      <c r="O2" s="18"/>
+      <c r="N7" s="16"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="14">
-        <v>2</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="16">
-        <v>38916</v>
-      </c>
-      <c r="J3" s="17" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="22">
+      <c r="E8" s="13">
+        <v>7</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="15">
+        <v>38921</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="20">
         <v>314033</v>
       </c>
-      <c r="O3" s="18"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="14">
-        <v>3</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="16">
-        <v>38917</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="22">
-        <v>314033</v>
-      </c>
-      <c r="O4" s="18"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="14">
-        <v>4</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="16">
-        <v>38918</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="22">
-        <v>314033</v>
-      </c>
-      <c r="O5" s="18"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="14">
-        <v>5</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="16">
-        <v>38919</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="22">
-        <v>314033</v>
-      </c>
-      <c r="O6" s="18"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="14">
-        <v>6</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="16">
-        <v>38920</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="22">
-        <v>314033</v>
-      </c>
-      <c r="O7" s="18"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="14">
-        <v>7</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="16">
-        <v>38921</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="22">
-        <v>314033</v>
-      </c>
-      <c r="O8" s="18"/>
+      <c r="N8" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/JXGIS.JXTopsystem/Files/UploadFiles/农村门牌上传模板.xlsx
+++ b/JXGIS.JXTopsystem/Files/UploadFiles/农村门牌上传模板.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>市辖区</t>
   </si>
@@ -155,6 +155,10 @@
   <si>
     <t>门牌规格</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -248,7 +252,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -271,26 +275,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -345,17 +336,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,309 +620,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
-    <col min="3" max="4" width="10.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.75" customWidth="1"/>
-    <col min="11" max="11" width="11" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="2" customWidth="1"/>
+    <col min="4" max="5" width="10.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.75" customWidth="1"/>
+    <col min="12" max="12" width="11" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="13">
+      <c r="F2" s="13">
         <v>1</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="15">
+      <c r="J2" s="15">
         <v>38915</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="K2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="12"/>
       <c r="L2" s="12"/>
-      <c r="M2" s="20">
+      <c r="M2" s="12"/>
+      <c r="N2" s="13">
         <v>314033</v>
       </c>
-      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="13">
+      <c r="F3" s="13">
         <v>2</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="14" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="15">
+      <c r="J3" s="15">
         <v>38916</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="K3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="12"/>
       <c r="L3" s="12"/>
-      <c r="M3" s="20">
+      <c r="M3" s="12"/>
+      <c r="N3" s="13">
         <v>314033</v>
       </c>
-      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="13">
+      <c r="F4" s="13">
         <v>3</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="14" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="15">
+      <c r="J4" s="15">
         <v>38917</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="K4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="12"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="20">
+      <c r="M4" s="12"/>
+      <c r="N4" s="13">
         <v>314033</v>
       </c>
-      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="13">
+      <c r="F5" s="13">
         <v>4</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="14" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="15">
+      <c r="J5" s="15">
         <v>38918</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="K5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="20">
+      <c r="M5" s="12"/>
+      <c r="N5" s="13">
         <v>314033</v>
       </c>
-      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="13">
+      <c r="F6" s="13">
         <v>5</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="14" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="15">
+      <c r="J6" s="15">
         <v>38919</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="K6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="20">
+      <c r="M6" s="12"/>
+      <c r="N6" s="13">
         <v>314033</v>
       </c>
-      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>6</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="15">
+      <c r="J7" s="15">
         <v>38920</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="K7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="20">
+      <c r="M7" s="12"/>
+      <c r="N7" s="13">
         <v>314033</v>
       </c>
-      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="13">
+      <c r="F8" s="13">
         <v>7</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="14" t="s">
+      <c r="G8" s="13"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="15">
+      <c r="J8" s="15">
         <v>38921</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="K8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="20">
+      <c r="M8" s="12"/>
+      <c r="N8" s="13">
         <v>314033</v>
       </c>
-      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
